--- a/reports/excel temp tables.xlsx
+++ b/reports/excel temp tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28af51b033be6ff1/Documents/Springboard/git_repositories/DataScienceCapstoneTwo/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{0B3DBE2B-4CF9-41D5-A578-AE964C6F615E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16152B15-E2F6-442E-A241-C68438ED800D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{0B3DBE2B-4CF9-41D5-A578-AE964C6F615E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CBFEF1FC-0519-44F9-A2B0-5BAE6A3DFC5E}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-120" windowWidth="37560" windowHeight="21840" activeTab="1" xr2:uid="{35E26E57-8D94-4ADC-B209-87DDE8DF261D}"/>
+    <workbookView xWindow="4515" yWindow="2085" windowWidth="28215" windowHeight="15390" activeTab="2" xr2:uid="{35E26E57-8D94-4ADC-B209-87DDE8DF261D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="correlation vs quality score" sheetId="2" r:id="rId2"/>
+    <sheet name="FLD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>OriginalCT</t>
   </si>
@@ -235,6 +236,15 @@
   </si>
   <si>
     <t>AB.meanX.abs_clean</t>
+  </si>
+  <si>
+    <t>(Row Count)</t>
+  </si>
+  <si>
+    <t>Count(FLD)</t>
+  </si>
+  <si>
+    <t>Count(HomFLD)</t>
   </si>
 </sst>
 </file>
@@ -274,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -335,7 +351,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -357,10 +373,16 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,34 +721,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1182,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F6C993-23A5-4E23-839F-4E2DCFEFB39F}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,4 +2105,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8D3234-E9D3-4197-8FB4-D895030CF3CD}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>30476</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>519163</v>
+      </c>
+      <c r="C3" s="11">
+        <v>518798</v>
+      </c>
+      <c r="D3" s="11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>258516</v>
+      </c>
+      <c r="C4" s="11">
+        <v>258516</v>
+      </c>
+      <c r="D4" s="11">
+        <v>258516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reports/excel temp tables.xlsx
+++ b/reports/excel temp tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28af51b033be6ff1/Documents/Springboard/git_repositories/DataScienceCapstoneTwo/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{0B3DBE2B-4CF9-41D5-A578-AE964C6F615E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CBFEF1FC-0519-44F9-A2B0-5BAE6A3DFC5E}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{0B3DBE2B-4CF9-41D5-A578-AE964C6F615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86AC955-BC4B-B145-B02E-02B91A81C24F}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="2085" windowWidth="28215" windowHeight="15390" activeTab="2" xr2:uid="{35E26E57-8D94-4ADC-B209-87DDE8DF261D}"/>
+    <workbookView xWindow="2700" yWindow="2060" windowWidth="40340" windowHeight="25480" xr2:uid="{35E26E57-8D94-4ADC-B209-87DDE8DF261D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>OriginalCT</t>
   </si>
@@ -245,6 +245,52 @@
   </si>
   <si>
     <t>Count(HomFLD)</t>
+  </si>
+  <si>
+    <t>test low</t>
+  </si>
+  <si>
+    <t>train low</t>
+  </si>
+  <si>
+    <t>test high+marg</t>
+  </si>
+  <si>
+    <t>train high+marg</t>
+  </si>
+  <si>
+    <t>training set</t>
+  </si>
+  <si>
+    <t>sub-sampling train high+marginal</t>
+  </si>
+  <si>
+    <t>low % in sub-sampled training</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>quality_binary:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stats by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quality_binary</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -254,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +325,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -344,6 +398,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -351,7 +440,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -385,6 +474,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -702,489 +818,1543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4085CE-00D9-4A7D-9483-DF2F5E1FB187}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.6640625" customWidth="1"/>
+    <col min="22" max="22" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="L1" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="R1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="L2" s="2" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>0.7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="4">
-        <f>(M3+N3+O4)/SUM(M3:O4)</f>
+      <c r="W2" s="4">
+        <f>(R4+S4+T5)/SUM(R4:T5)</f>
         <v>0.96040611021400601</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="b">
+      <c r="J4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="5">
+      <c r="R4" s="5">
         <v>640680</v>
       </c>
-      <c r="N3" s="5">
+      <c r="S4" s="5">
         <v>114454</v>
       </c>
-      <c r="O3" s="6">
+      <c r="T4" s="6">
         <v>13462</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="V4" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="4">
-        <f>SUM(M3:N3)/SUM(M3:N4)</f>
+      <c r="W4" s="4">
+        <f>SUM(R4:S4)/SUM(R4:S5)</f>
         <v>0.9760414647071749</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>191118</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37684</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6774</v>
-      </c>
-      <c r="F4" s="7">
-        <f>C4/SUM($C4:$E4)</f>
-        <v>0.81127958705470848</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G15" si="0">D4/SUM($C4:$E4)</f>
-        <v>0.15996536149692669</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" ref="H4:H15" si="1">E4/SUM($C4:$E4)</f>
-        <v>2.8755051448364859E-2</v>
-      </c>
-      <c r="L4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>10491</v>
-      </c>
-      <c r="N4" s="6">
-        <v>8045</v>
-      </c>
-      <c r="O4" s="5">
-        <v>21023</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="4">
-        <f>O4/SUM(O3:O4)</f>
-        <v>0.6096273742206757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>191118</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37684</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6774</v>
+      </c>
+      <c r="F5" s="7">
+        <f>C5/SUM($C5:$E5)</f>
+        <v>0.81127958705470848</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G16" si="0">D5/SUM($C5:$E5)</f>
+        <v>0.15996536149692669</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H16" si="1">E5/SUM($C5:$E5)</f>
+        <v>2.8755051448364859E-2</v>
+      </c>
+      <c r="J5" s="19">
+        <f>$J$2*E5</f>
+        <v>2032.1999999999998</v>
+      </c>
+      <c r="K5" s="19">
+        <f>$K$2*E5</f>
+        <v>4741.7999999999993</v>
+      </c>
+      <c r="L5" s="19">
+        <f>$J$2*(C5+D5)</f>
+        <v>68640.599999999991</v>
+      </c>
+      <c r="M5" s="19">
+        <f>$K$2*(C5+D5)</f>
+        <v>160161.4</v>
+      </c>
+      <c r="N5" s="19">
+        <f>M5*$N$2</f>
+        <v>11211.298000000001</v>
+      </c>
+      <c r="O5" s="21">
+        <f>K5/SUM(K5,N5)</f>
+        <v>0.29723380374144254</v>
+      </c>
+      <c r="Q5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>10491</v>
+      </c>
+      <c r="S5" s="6">
+        <v>8045</v>
+      </c>
+      <c r="T5" s="5">
+        <v>21023</v>
+      </c>
+      <c r="V5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="4">
+        <f>T5/SUM(T4:T5)</f>
+        <v>0.6096273742206757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>423812</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>74654</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>5736</v>
       </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:F15" si="2">C5/SUM($C5:$E5)</f>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:F16" si="2">C6/SUM($C6:$E6)</f>
         <v>0.84055993431204157</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>0.14806367289300718</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>1.1376392794951231E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="b">
+      <c r="J6" s="19">
+        <f t="shared" ref="J6:J16" si="3">$J$2*E6</f>
+        <v>1720.8</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" ref="K6:K16" si="4">$K$2*E6</f>
+        <v>4015.2</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" ref="L6:L16" si="5">$J$2*(C6+D6)</f>
+        <v>149539.79999999999</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" ref="M6:M16" si="6">$K$2*(C6+D6)</f>
+        <v>348926.19999999995</v>
+      </c>
+      <c r="N6" s="19">
+        <f t="shared" ref="N6:N16" si="7">M6*$N$2</f>
+        <v>24424.833999999999</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" ref="O6:O16" si="8">K6/SUM(K6,N6)</f>
+        <v>0.14118126581705212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>25750</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>2116</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>952</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <f t="shared" si="2"/>
         <v>0.89353876049691161</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>7.3426330765493791E-2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>3.3034908737594557E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="J7" s="19">
+        <f t="shared" si="3"/>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="4"/>
+        <v>666.4</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="5"/>
+        <v>8359.7999999999993</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="6"/>
+        <v>19506.199999999997</v>
+      </c>
+      <c r="N7" s="19">
+        <f t="shared" si="7"/>
+        <v>1365.434</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="8"/>
+        <v>0.32797954951044228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>2082</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="J8" s="19">
+        <f t="shared" si="3"/>
+        <v>624.6</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="4"/>
+        <v>1457.3999999999999</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>3795</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>4382</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>16754</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>0.15222012755204364</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>0.17576511170831494</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0.67201476073964139</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="J9" s="19">
+        <f t="shared" si="3"/>
+        <v>5026.2</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="4"/>
+        <v>11727.8</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="5"/>
+        <v>2453.1</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="6"/>
+        <v>5723.9</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="7"/>
+        <v>400.673</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="8"/>
+        <v>0.96696426664758206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>318</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>610</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>1026</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <f t="shared" si="2"/>
         <v>0.16274309109518936</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>0.31218014329580346</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0.52507676560900718</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="J10" s="19">
+        <f t="shared" si="3"/>
+        <v>307.8</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="4"/>
+        <v>718.19999999999993</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="5"/>
+        <v>278.39999999999998</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="6"/>
+        <v>649.59999999999991</v>
+      </c>
+      <c r="N10" s="19">
+        <f t="shared" si="7"/>
+        <v>45.472000000000001</v>
+      </c>
+      <c r="O10" s="21">
+        <f t="shared" si="8"/>
+        <v>0.94045611204810442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>671</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>141</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>74</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <f t="shared" si="2"/>
         <v>0.7573363431151241</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>0.15914221218961624</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>8.35214446952596E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="J11" s="19">
+        <f t="shared" si="3"/>
+        <v>22.2</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="4"/>
+        <v>51.8</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="5"/>
+        <v>243.6</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="6"/>
+        <v>568.4</v>
+      </c>
+      <c r="N11" s="19">
+        <f t="shared" si="7"/>
+        <v>39.788000000000004</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="8"/>
+        <v>0.56557627636808316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>1125</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>260</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>73</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <f t="shared" si="2"/>
         <v>0.77160493827160492</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>0.17832647462277093</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>5.0068587105624146E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="J12" s="19">
+        <f t="shared" si="3"/>
+        <v>21.9</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="4"/>
+        <v>51.099999999999994</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="5"/>
+        <v>415.5</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="6"/>
+        <v>969.49999999999989</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="7"/>
+        <v>67.864999999999995</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="8"/>
+        <v>0.42953809944101207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>1244</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>1007</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>256</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>0.49621061029118468</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>0.40167530913442362</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0.1021140805743917</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="J13" s="19">
+        <f t="shared" si="3"/>
+        <v>76.8</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="4"/>
+        <v>179.2</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="5"/>
+        <v>675.3</v>
+      </c>
+      <c r="M13" s="19">
+        <f t="shared" si="6"/>
+        <v>1575.6999999999998</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="7"/>
+        <v>110.29899999999999</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="8"/>
+        <v>0.61900041105496051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>1263</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>1061</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>549</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
         <v>0.43961016359206406</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>0.36930038287504352</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>0.19108945353289244</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="J14" s="19">
+        <f t="shared" si="3"/>
+        <v>164.7</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="4"/>
+        <v>384.29999999999995</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="5"/>
+        <v>697.19999999999993</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="6"/>
+        <v>1626.8</v>
+      </c>
+      <c r="N14" s="19">
+        <f t="shared" si="7"/>
+        <v>113.876</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="8"/>
+        <v>0.77141411870503596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>1094</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>265</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>67</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>0.76718092566619911</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>0.18583450210378682</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>4.6984572230014024E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="J15" s="19">
+        <f t="shared" si="3"/>
+        <v>20.099999999999998</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="4"/>
+        <v>46.9</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="5"/>
+        <v>407.7</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="6"/>
+        <v>951.3</v>
+      </c>
+      <c r="N15" s="19">
+        <f t="shared" si="7"/>
+        <v>66.591000000000008</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="8"/>
+        <v>0.41324862764448278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>981</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>319</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>142</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="2"/>
         <v>0.68030513176144247</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>0.22122052704576978</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>9.8474341192787793E-2</v>
       </c>
+      <c r="J16" s="19">
+        <f t="shared" si="3"/>
+        <v>42.6</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="4"/>
+        <v>99.399999999999991</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" si="6"/>
+        <v>909.99999999999989</v>
+      </c>
+      <c r="N16" s="19">
+        <f t="shared" si="7"/>
+        <v>63.699999999999996</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="8"/>
+        <v>0.6094420600858369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f>0.7*SUM(C5:D16)</f>
+        <v>541569</v>
+      </c>
+      <c r="K18">
+        <f>SUM(K5:K16)</f>
+        <v>24139.5</v>
+      </c>
+      <c r="N18" s="19">
+        <f>SUM(N5:N16)</f>
+        <v>37909.829999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <f>K18/SUM(K18,N18)</f>
+        <v>0.38903723859709688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="J23">
+        <v>0.3</v>
+      </c>
+      <c r="K23">
+        <v>0.7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <f>D5+C5</f>
+        <v>228802</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6774</v>
+      </c>
+      <c r="G26" s="7">
+        <f>D26/SUM($D26:$E26)</f>
+        <v>0.97124494855163512</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" ref="H26:H37" si="9">E26/SUM($C26:$E26)</f>
+        <v>2.8755051448364859E-2</v>
+      </c>
+      <c r="J26" s="19">
+        <f>$J$2*E26</f>
+        <v>2032.1999999999998</v>
+      </c>
+      <c r="K26" s="19">
+        <f>$K$2*E26</f>
+        <v>4741.7999999999993</v>
+      </c>
+      <c r="L26" s="19">
+        <f>$J$2*(C26+D26)</f>
+        <v>68640.599999999991</v>
+      </c>
+      <c r="M26" s="19">
+        <f>$K$2*(C26+D26)</f>
+        <v>160161.4</v>
+      </c>
+      <c r="N26" s="19">
+        <f>M26*$N$2</f>
+        <v>11211.298000000001</v>
+      </c>
+      <c r="O26" s="21">
+        <f>K26/SUM(K26,N26)</f>
+        <v>0.29723380374144254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27:D37" si="10">D6+C6</f>
+        <v>498466</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5736</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" ref="G27:G37" si="11">D27/SUM($D27:$E27)</f>
+        <v>0.98862360720504872</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1376392794951231E-2</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" ref="J27:J37" si="12">$J$2*E27</f>
+        <v>1720.8</v>
+      </c>
+      <c r="K27" s="19">
+        <f t="shared" ref="K27:K37" si="13">$K$2*E27</f>
+        <v>4015.2</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" ref="L27:L37" si="14">$J$2*(C27+D27)</f>
+        <v>149539.79999999999</v>
+      </c>
+      <c r="M27" s="19">
+        <f t="shared" ref="M27:M37" si="15">$K$2*(C27+D27)</f>
+        <v>348926.19999999995</v>
+      </c>
+      <c r="N27" s="19">
+        <f t="shared" ref="N27:N37" si="16">M27*$N$2</f>
+        <v>24424.833999999999</v>
+      </c>
+      <c r="O27" s="21">
+        <f t="shared" ref="O27:O37" si="17">K27/SUM(K27,N27)</f>
+        <v>0.14118126581705212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <f t="shared" si="10"/>
+        <v>27866</v>
+      </c>
+      <c r="E28" s="1">
+        <v>952</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="11"/>
+        <v>0.96696509126240549</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="9"/>
+        <v>3.3034908737594557E-2</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="12"/>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" si="13"/>
+        <v>666.4</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="14"/>
+        <v>8359.7999999999993</v>
+      </c>
+      <c r="M28" s="19">
+        <f t="shared" si="15"/>
+        <v>19506.199999999997</v>
+      </c>
+      <c r="N28" s="19">
+        <f t="shared" si="16"/>
+        <v>1365.434</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="17"/>
+        <v>0.32797954951044228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2082</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" si="12"/>
+        <v>624.6</v>
+      </c>
+      <c r="K29" s="19">
+        <f t="shared" si="13"/>
+        <v>1457.3999999999999</v>
+      </c>
+      <c r="L29" s="19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="21">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <f t="shared" si="10"/>
+        <v>8177</v>
+      </c>
+      <c r="E30" s="1">
+        <v>16754</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="11"/>
+        <v>0.32798523926035861</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="9"/>
+        <v>0.67201476073964139</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="12"/>
+        <v>5026.2</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" si="13"/>
+        <v>11727.8</v>
+      </c>
+      <c r="L30" s="19">
+        <f t="shared" si="14"/>
+        <v>2453.1</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" si="15"/>
+        <v>5723.9</v>
+      </c>
+      <c r="N30" s="19">
+        <f t="shared" si="16"/>
+        <v>400.673</v>
+      </c>
+      <c r="O30" s="21">
+        <f t="shared" si="17"/>
+        <v>0.96696426664758206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <f t="shared" si="10"/>
+        <v>928</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1026</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="11"/>
+        <v>0.47492323439099282</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="9"/>
+        <v>0.52507676560900718</v>
+      </c>
+      <c r="J31" s="19">
+        <f t="shared" si="12"/>
+        <v>307.8</v>
+      </c>
+      <c r="K31" s="19">
+        <f t="shared" si="13"/>
+        <v>718.19999999999993</v>
+      </c>
+      <c r="L31" s="19">
+        <f t="shared" si="14"/>
+        <v>278.39999999999998</v>
+      </c>
+      <c r="M31" s="19">
+        <f t="shared" si="15"/>
+        <v>649.59999999999991</v>
+      </c>
+      <c r="N31" s="19">
+        <f t="shared" si="16"/>
+        <v>45.472000000000001</v>
+      </c>
+      <c r="O31" s="21">
+        <f t="shared" si="17"/>
+        <v>0.94045611204810442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <f t="shared" si="10"/>
+        <v>812</v>
+      </c>
+      <c r="E32" s="1">
+        <v>74</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="11"/>
+        <v>0.91647855530474043</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="9"/>
+        <v>8.35214446952596E-2</v>
+      </c>
+      <c r="J32" s="19">
+        <f t="shared" si="12"/>
+        <v>22.2</v>
+      </c>
+      <c r="K32" s="19">
+        <f t="shared" si="13"/>
+        <v>51.8</v>
+      </c>
+      <c r="L32" s="19">
+        <f t="shared" si="14"/>
+        <v>243.6</v>
+      </c>
+      <c r="M32" s="19">
+        <f t="shared" si="15"/>
+        <v>568.4</v>
+      </c>
+      <c r="N32" s="19">
+        <f t="shared" si="16"/>
+        <v>39.788000000000004</v>
+      </c>
+      <c r="O32" s="21">
+        <f t="shared" si="17"/>
+        <v>0.56557627636808316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <f t="shared" si="10"/>
+        <v>1385</v>
+      </c>
+      <c r="E33" s="1">
+        <v>73</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="11"/>
+        <v>0.94993141289437588</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="9"/>
+        <v>5.0068587105624146E-2</v>
+      </c>
+      <c r="J33" s="19">
+        <f t="shared" si="12"/>
+        <v>21.9</v>
+      </c>
+      <c r="K33" s="19">
+        <f t="shared" si="13"/>
+        <v>51.099999999999994</v>
+      </c>
+      <c r="L33" s="19">
+        <f t="shared" si="14"/>
+        <v>415.5</v>
+      </c>
+      <c r="M33" s="19">
+        <f t="shared" si="15"/>
+        <v>969.49999999999989</v>
+      </c>
+      <c r="N33" s="19">
+        <f t="shared" si="16"/>
+        <v>67.864999999999995</v>
+      </c>
+      <c r="O33" s="21">
+        <f t="shared" si="17"/>
+        <v>0.42953809944101207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1">
+        <f t="shared" si="10"/>
+        <v>2251</v>
+      </c>
+      <c r="E34" s="1">
+        <v>256</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="11"/>
+        <v>0.89788591942560825</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="9"/>
+        <v>0.1021140805743917</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" si="12"/>
+        <v>76.8</v>
+      </c>
+      <c r="K34" s="19">
+        <f t="shared" si="13"/>
+        <v>179.2</v>
+      </c>
+      <c r="L34" s="19">
+        <f t="shared" si="14"/>
+        <v>675.3</v>
+      </c>
+      <c r="M34" s="19">
+        <f t="shared" si="15"/>
+        <v>1575.6999999999998</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="16"/>
+        <v>110.29899999999999</v>
+      </c>
+      <c r="O34" s="21">
+        <f t="shared" si="17"/>
+        <v>0.61900041105496051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
+        <f t="shared" si="10"/>
+        <v>2324</v>
+      </c>
+      <c r="E35" s="1">
+        <v>549</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="11"/>
+        <v>0.80891054646710758</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="9"/>
+        <v>0.19108945353289244</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="12"/>
+        <v>164.7</v>
+      </c>
+      <c r="K35" s="19">
+        <f t="shared" si="13"/>
+        <v>384.29999999999995</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="14"/>
+        <v>697.19999999999993</v>
+      </c>
+      <c r="M35" s="19">
+        <f t="shared" si="15"/>
+        <v>1626.8</v>
+      </c>
+      <c r="N35" s="19">
+        <f t="shared" si="16"/>
+        <v>113.876</v>
+      </c>
+      <c r="O35" s="21">
+        <f t="shared" si="17"/>
+        <v>0.77141411870503596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <f t="shared" si="10"/>
+        <v>1359</v>
+      </c>
+      <c r="E36" s="1">
+        <v>67</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="11"/>
+        <v>0.95301542776998593</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="9"/>
+        <v>4.6984572230014024E-2</v>
+      </c>
+      <c r="J36" s="19">
+        <f t="shared" si="12"/>
+        <v>20.099999999999998</v>
+      </c>
+      <c r="K36" s="19">
+        <f t="shared" si="13"/>
+        <v>46.9</v>
+      </c>
+      <c r="L36" s="19">
+        <f t="shared" si="14"/>
+        <v>407.7</v>
+      </c>
+      <c r="M36" s="19">
+        <f t="shared" si="15"/>
+        <v>951.3</v>
+      </c>
+      <c r="N36" s="19">
+        <f t="shared" si="16"/>
+        <v>66.591000000000008</v>
+      </c>
+      <c r="O36" s="21">
+        <f t="shared" si="17"/>
+        <v>0.41324862764448278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <f t="shared" si="10"/>
+        <v>1300</v>
+      </c>
+      <c r="E37" s="1">
+        <v>142</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="11"/>
+        <v>0.90152565880721225</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="9"/>
+        <v>9.8474341192787793E-2</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="12"/>
+        <v>42.6</v>
+      </c>
+      <c r="K37" s="19">
+        <f t="shared" si="13"/>
+        <v>99.399999999999991</v>
+      </c>
+      <c r="L37" s="19">
+        <f t="shared" si="14"/>
+        <v>390</v>
+      </c>
+      <c r="M37" s="19">
+        <f t="shared" si="15"/>
+        <v>909.99999999999989</v>
+      </c>
+      <c r="N37" s="19">
+        <f t="shared" si="16"/>
+        <v>63.699999999999996</v>
+      </c>
+      <c r="O37" s="21">
+        <f t="shared" si="17"/>
+        <v>0.6094420600858369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f>0.7*SUM(C26:D37)</f>
+        <v>541569</v>
+      </c>
+      <c r="K39">
+        <f>SUM(K26:K37)</f>
+        <v>24139.5</v>
+      </c>
+      <c r="N39" s="19">
+        <f>SUM(N26:N37)</f>
+        <v>37909.829999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <f>K39/SUM(K39,N39)</f>
+        <v>0.38903723859709688</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:H15">
+  <conditionalFormatting sqref="F5:H16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1208,17 +2378,17 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +2414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -1270,7 +2440,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1296,7 +2466,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -1322,7 +2492,7 @@
         <v>764300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -1348,7 +2518,7 @@
         <v>777314</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -1374,7 +2544,7 @@
         <v>777343</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -1400,7 +2570,7 @@
         <v>777343</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1426,7 +2596,7 @@
         <v>777343</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1452,7 +2622,7 @@
         <v>808126</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1478,7 +2648,7 @@
         <v>777343</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -1504,7 +2674,7 @@
         <v>258881</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1530,7 +2700,7 @@
         <v>467351</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1556,7 +2726,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1582,7 +2752,7 @@
         <v>777343</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -1608,7 +2778,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1634,7 +2804,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -1660,7 +2830,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -1686,7 +2856,7 @@
         <v>599656</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1712,7 +2882,7 @@
         <v>246168</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1738,7 +2908,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1764,7 +2934,7 @@
         <v>258516</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1790,7 +2960,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1816,7 +2986,7 @@
         <v>246168</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -1842,7 +3012,7 @@
         <v>599656</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1868,7 +3038,7 @@
         <v>467351</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1894,7 +3064,7 @@
         <v>808155</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -1920,7 +3090,7 @@
         <v>599656</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -1946,7 +3116,7 @@
         <v>246168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -1972,7 +3142,7 @@
         <v>246168</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1998,7 +3168,7 @@
         <v>246168</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -2024,7 +3194,7 @@
         <v>246168</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -2050,7 +3220,7 @@
         <v>467351</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -2076,7 +3246,7 @@
         <v>467351</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -2111,19 +3281,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8D3234-E9D3-4197-8FB4-D895030CF3CD}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>56</v>
       </c>
@@ -2137,7 +3307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2151,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2165,7 +3335,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
